--- a/Module.xlsx
+++ b/Module.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整锭模块" sheetId="1" r:id="rId1"/>
     <sheet name="表名" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="生产模块" sheetId="3" r:id="rId3"/>
+    <sheet name="生产线" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlt351991737" localSheetId="1">表名!$F$9</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="659">
   <si>
     <t>9.05园坯台账</t>
   </si>
@@ -102,15 +106,9 @@
     <t>2.2外购钢计划</t>
   </si>
   <si>
-    <t>PurchaseBilletPlanReceipt</t>
-  </si>
-  <si>
     <t>2.3热轧坯料需求计划</t>
   </si>
   <si>
-    <t>HotRollProductLineBilletReqmentReceipt</t>
-  </si>
-  <si>
     <t>2.4生产线送钢计划接收</t>
   </si>
   <si>
@@ -195,21 +193,12 @@
     <t>5.1配钢计划</t>
   </si>
   <si>
-    <t>BilletReqStockMapPlan</t>
-  </si>
-  <si>
     <t>5.2要车计划</t>
   </si>
   <si>
-    <t>AskTransportationPlanEdit</t>
-  </si>
-  <si>
     <t>5.3发钢计划</t>
   </si>
   <si>
-    <t>DeliveryBilletJobPlan</t>
-  </si>
-  <si>
     <t>5.4翻钢计划</t>
   </si>
   <si>
@@ -219,15 +208,9 @@
     <t>5.5转运计划</t>
   </si>
   <si>
-    <t>BilletTransferPlan</t>
-  </si>
-  <si>
     <t>5.6直发计划</t>
   </si>
   <si>
-    <t>DirectDeliveryJobPlan</t>
-  </si>
-  <si>
     <t>5.7外委加工发钢计划</t>
   </si>
   <si>
@@ -264,21 +247,12 @@
     <t>7.01自炼钢预入库</t>
   </si>
   <si>
-    <t>WarehouseInAdvance</t>
-  </si>
-  <si>
     <t>7.02自炼钢整理结果填写</t>
   </si>
   <si>
-    <t>BilletModify</t>
-  </si>
-  <si>
     <t>7.03外购钢预入库</t>
   </si>
   <si>
-    <t>PurchaseInAdvance</t>
-  </si>
-  <si>
     <t>7.04外购钢整理结果填写</t>
   </si>
   <si>
@@ -288,9 +262,6 @@
     <t>7.05直发结果填写</t>
   </si>
   <si>
-    <t>StraightHairBillet</t>
-  </si>
-  <si>
     <t>7.06坯料出库</t>
   </si>
   <si>
@@ -330,9 +301,6 @@
     <t>7.12转运记录填写</t>
   </si>
   <si>
-    <t>BilletLocationMoveIn</t>
-  </si>
-  <si>
     <t>7.18资产判废</t>
   </si>
   <si>
@@ -352,9 +320,6 @@
   </si>
   <si>
     <t>7.15废品处理</t>
-  </si>
-  <si>
-    <t>DiscardReject</t>
   </si>
   <si>
     <t>7.16待判品处理</t>
@@ -533,6 +498,1660 @@
   </si>
   <si>
     <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdt_ProductHeatTreatment</t>
+  </si>
+  <si>
+    <t>产品热处理类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurchaseBilletPlanReceipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_PurchaseBilletPlan</t>
+  </si>
+  <si>
+    <t>外购坯料计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotRollProductLineBilletReqmentReceipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_HotRollProductLineBilletReqment</t>
+  </si>
+  <si>
+    <t>热轧线坯料需求计划</t>
+  </si>
+  <si>
+    <t>wst_AcceptJobsBilletPlan</t>
+  </si>
+  <si>
+    <t>来料加工计划</t>
+  </si>
+  <si>
+    <t>生产线要钢计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_DeliveryBilletJobPlan</t>
+  </si>
+  <si>
+    <t>发钢作业计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_DeliveryBilletJobPlanDetail</t>
+  </si>
+  <si>
+    <t>发钢计划明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_WSRAL00001</t>
+  </si>
+  <si>
+    <t>整锭库发料实绩</t>
+  </si>
+  <si>
+    <t>BilletReqStockMapPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坯料库存帐锁定记录</t>
+  </si>
+  <si>
+    <t>配钢计划</t>
+  </si>
+  <si>
+    <t>wst_BilletReqStockMapPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_QGSTS00004</t>
+  </si>
+  <si>
+    <t>wst_BilletStoreLockInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_BilletReqStockMapPlan， wst_BilletStoreLockInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AskTransportationPlanEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryBilletJobPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_AskTransportationPlan</t>
+  </si>
+  <si>
+    <t>要车计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_ChangeBilletPositionRecord</t>
+  </si>
+  <si>
+    <t>翻钢作业记录</t>
+  </si>
+  <si>
+    <t>wst_ChangeBilletPositionPlan</t>
+  </si>
+  <si>
+    <t>翻钢计划</t>
+  </si>
+  <si>
+    <t>BilletTransferPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_TransferPlanStockDetail</t>
+  </si>
+  <si>
+    <t>转运计划库存明细</t>
+  </si>
+  <si>
+    <t>wst_BilletTransferPlan</t>
+  </si>
+  <si>
+    <t>转运计划</t>
+  </si>
+  <si>
+    <t>DirectDeliveryJobPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_BilletInput</t>
+  </si>
+  <si>
+    <t>坯料入库</t>
+  </si>
+  <si>
+    <t>wst_ManufactureOutTrustPlan</t>
+  </si>
+  <si>
+    <t>外委加工计划</t>
+  </si>
+  <si>
+    <t>wst_DeliveryBilletJobPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.48.化学检验单下发</t>
+  </si>
+  <si>
+    <t>ContractChemicalCheckIssued</t>
+  </si>
+  <si>
+    <t>计划年月指定管理</t>
+  </si>
+  <si>
+    <t>TimeMaintenanceFrm</t>
+  </si>
+  <si>
+    <t>工艺计划编制</t>
+  </si>
+  <si>
+    <t>MachineTechPlanFrm</t>
+  </si>
+  <si>
+    <t>工艺计划下发</t>
+  </si>
+  <si>
+    <t>RollContractBindMachineTechPlanFrm</t>
+  </si>
+  <si>
+    <t>检验取样类型</t>
+  </si>
+  <si>
+    <t>CheckSamplingkind</t>
+  </si>
+  <si>
+    <t>检验方式编码</t>
+  </si>
+  <si>
+    <t>CheckSamplingWay</t>
+  </si>
+  <si>
+    <t>物理检验大项</t>
+  </si>
+  <si>
+    <t>PhysicalCodeType</t>
+  </si>
+  <si>
+    <t>物理检验子项</t>
+  </si>
+  <si>
+    <t>PhysicalCode</t>
+  </si>
+  <si>
+    <t>物理检验项目摘要设置</t>
+  </si>
+  <si>
+    <t>PhysicalCheckRelationship</t>
+  </si>
+  <si>
+    <t>取样样块编码</t>
+  </si>
+  <si>
+    <t>CheckSamplingPosition</t>
+  </si>
+  <si>
+    <t>1.01.销售合同获取</t>
+  </si>
+  <si>
+    <t>SalesContractReceive</t>
+  </si>
+  <si>
+    <t>1.02.监造纪要记录</t>
+  </si>
+  <si>
+    <t>SupervisionPS_New</t>
+  </si>
+  <si>
+    <t>1.10.轧材生产合同制定</t>
+  </si>
+  <si>
+    <t>RollProductContractFrm</t>
+  </si>
+  <si>
+    <t>1.11.轧材生产合同确认</t>
+  </si>
+  <si>
+    <t>RollContractAuditFrm</t>
+  </si>
+  <si>
+    <t>1.13.轧材生产合同下发</t>
+  </si>
+  <si>
+    <t>RollContractIssuedFrm</t>
+  </si>
+  <si>
+    <t>1.14.监造计划查看</t>
+  </si>
+  <si>
+    <t>SupervisionContract</t>
+  </si>
+  <si>
+    <t>1.03.监造纪要下发</t>
+  </si>
+  <si>
+    <t>2.14.孔型要钢计划编制</t>
+  </si>
+  <si>
+    <t>BilletSupplyFrm</t>
+  </si>
+  <si>
+    <t>1.41.更新质量模板</t>
+  </si>
+  <si>
+    <t>UpdateQualityTemplatesFrm</t>
+  </si>
+  <si>
+    <t>3.10.轧材要钢计划编制(手动录入)</t>
+  </si>
+  <si>
+    <t>1.42.轧材合同要钢制定</t>
+  </si>
+  <si>
+    <t>BilletNeedContract</t>
+  </si>
+  <si>
+    <t>1.15.轧材生产合同撤销</t>
+  </si>
+  <si>
+    <t>RollContractCancelFrm</t>
+  </si>
+  <si>
+    <t>1.43.要钢计划确认</t>
+  </si>
+  <si>
+    <t>BilletNeedPlanConfirm</t>
+  </si>
+  <si>
+    <t>5.9.7.轧材合同状态查看</t>
+  </si>
+  <si>
+    <t>RollContractRelate</t>
+  </si>
+  <si>
+    <t>1.05.成品合同产线指定</t>
+  </si>
+  <si>
+    <t>SetProductLineBySaleContractFrm</t>
+  </si>
+  <si>
+    <t>1.04.成品合同产品选择</t>
+  </si>
+  <si>
+    <t>SaleContractProductLineFrm_AddProduct</t>
+  </si>
+  <si>
+    <t>5.9.6.合同流程查看</t>
+  </si>
+  <si>
+    <t>ContractProcess</t>
+  </si>
+  <si>
+    <t>1.25.接箍合同修改</t>
+  </si>
+  <si>
+    <t>JKBilletContract</t>
+  </si>
+  <si>
+    <t>1.26.接箍合同绑定</t>
+  </si>
+  <si>
+    <t>RollContractRelationFrm</t>
+  </si>
+  <si>
+    <t>1.00.销售合同完结</t>
+  </si>
+  <si>
+    <t>SaleContractProductLineRevokeFrm</t>
+  </si>
+  <si>
+    <t>1.16.轧材生产合同管理</t>
+  </si>
+  <si>
+    <t>RollContractPauseFinishFrm</t>
+  </si>
+  <si>
+    <t>1.44.化学检验取样单</t>
+  </si>
+  <si>
+    <t>ChemicalCheck</t>
+  </si>
+  <si>
+    <t>1.45.物理检验取样单</t>
+  </si>
+  <si>
+    <t>PhysicalCheckFinalSecond</t>
+  </si>
+  <si>
+    <t>1.47.物理检验单及作业指导下发</t>
+  </si>
+  <si>
+    <t>ContractCheckIssued</t>
+  </si>
+  <si>
+    <t>1.46.作业指导</t>
+  </si>
+  <si>
+    <t>OperatingPoints</t>
+  </si>
+  <si>
+    <t>1.50.物理检验规格配置</t>
+  </si>
+  <si>
+    <t>StandardPhysicalSamplingEx</t>
+  </si>
+  <si>
+    <t>1.51.化学检验规格配置</t>
+  </si>
+  <si>
+    <t>StandardChemicalElements</t>
+  </si>
+  <si>
+    <t>2.01.编制轧制月计划</t>
+  </si>
+  <si>
+    <t>RollMonthPlanFrm</t>
+  </si>
+  <si>
+    <t>2.0.1.月计划编制</t>
+  </si>
+  <si>
+    <t>RollProductMonthPlan</t>
+  </si>
+  <si>
+    <t>2.02.确认轧制月计划</t>
+  </si>
+  <si>
+    <t>ProductMonthPlanAuditInforFrm</t>
+  </si>
+  <si>
+    <t>2.11.制定轧材孔型计划</t>
+  </si>
+  <si>
+    <t>GrooveMonthPlan</t>
+  </si>
+  <si>
+    <t>2.12.确认轧制孔型计划</t>
+  </si>
+  <si>
+    <t>GrooveMonthPlanAuditInforFrm</t>
+  </si>
+  <si>
+    <t>2.13.下发轧制孔型计划</t>
+  </si>
+  <si>
+    <t>2.21.制定轧材日计划</t>
+  </si>
+  <si>
+    <t>PipleProductDayWorkPlanEx</t>
+  </si>
+  <si>
+    <t>2.23.下发轧材日计划</t>
+  </si>
+  <si>
+    <t>PipleProductDayWorkIssuedFrm</t>
+  </si>
+  <si>
+    <t>2.03.撤销月计划</t>
+  </si>
+  <si>
+    <t>RollMonthPlanRevoke</t>
+  </si>
+  <si>
+    <t>2.24.撤销日计划</t>
+  </si>
+  <si>
+    <t>PipleProductDayWorkPlanEnded</t>
+  </si>
+  <si>
+    <t>3.20.轧材要钢需求供坯分解</t>
+  </si>
+  <si>
+    <t>SmeltProductContractPop</t>
+  </si>
+  <si>
+    <t>3.30.冶炼合同编制(电渣/锻坯炼钢计划)</t>
+  </si>
+  <si>
+    <t>Smelt</t>
+  </si>
+  <si>
+    <t>3.31.冶炼合同确认(供坯计划确认)</t>
+  </si>
+  <si>
+    <t>SmeltProductContractAuditInfor</t>
+  </si>
+  <si>
+    <t>3.33.冶炼生产合同下发</t>
+  </si>
+  <si>
+    <t>SmeltContractIssuedFrm</t>
+  </si>
+  <si>
+    <t>3.22.钢坯外购计划制定</t>
+  </si>
+  <si>
+    <t>BilletOutSideBuyPlan</t>
+  </si>
+  <si>
+    <t>3.23.钢坯外购计划发送整锭</t>
+  </si>
+  <si>
+    <t>3.12.要钢计划下发整锭</t>
+  </si>
+  <si>
+    <t>3.32.冶炼合同变更、终止</t>
+  </si>
+  <si>
+    <t>SmeltModify</t>
+  </si>
+  <si>
+    <t>3.11.要钢计划撤销</t>
+  </si>
+  <si>
+    <t>SmeltProductContractEnded</t>
+  </si>
+  <si>
+    <t>3.13.电渣要钢计划编制</t>
+  </si>
+  <si>
+    <t>SmeltBilletSupplyFrm</t>
+  </si>
+  <si>
+    <t>4.10.冶炼日计划编制</t>
+  </si>
+  <si>
+    <t>SmeltDay</t>
+  </si>
+  <si>
+    <t>4.11.冶炼日计划撤销</t>
+  </si>
+  <si>
+    <t>SmeltDayRevoke</t>
+  </si>
+  <si>
+    <t>4.20.浇钢计划（含电渣计划）下发</t>
+  </si>
+  <si>
+    <t>SmeltDayIssuedFrm</t>
+  </si>
+  <si>
+    <t>5.1.外委协议编制</t>
+  </si>
+  <si>
+    <t>AssignedAgreement</t>
+  </si>
+  <si>
+    <t>5.2.外委协议下发</t>
+  </si>
+  <si>
+    <t>5.9.3.综合查询</t>
+  </si>
+  <si>
+    <t>PublicExportDataFrm</t>
+  </si>
+  <si>
+    <t>5.9.1.MES回收数据查看</t>
+  </si>
+  <si>
+    <t>MesFrm</t>
+  </si>
+  <si>
+    <t>5.9.2.生产过程跟踪</t>
+  </si>
+  <si>
+    <t>SalesContractProcessOverview</t>
+  </si>
+  <si>
+    <t>5.9.4.成品产线指定信息查询</t>
+  </si>
+  <si>
+    <t>SetProductLineBySaleContractSearchFrm</t>
+  </si>
+  <si>
+    <t>5.9.5.产线合同执行进度查询</t>
+  </si>
+  <si>
+    <t>LineContractProcess</t>
+  </si>
+  <si>
+    <t>5.9.8.孔型计划生产实绩</t>
+  </si>
+  <si>
+    <t>GrooveMonthPlanRollResult</t>
+  </si>
+  <si>
+    <t>6.01.孔型计划表</t>
+  </si>
+  <si>
+    <t>GrooveMonthPlanReport</t>
+  </si>
+  <si>
+    <t>6.02.排产合同交库分析汇总表</t>
+  </si>
+  <si>
+    <t>PlanContractDeliverySum</t>
+  </si>
+  <si>
+    <t>6.03.一次材生产情况汇总表</t>
+  </si>
+  <si>
+    <t>OneTimberContractProductSum</t>
+  </si>
+  <si>
+    <t>6.04.考核合同汇总表</t>
+  </si>
+  <si>
+    <t>CheckContractSum</t>
+  </si>
+  <si>
+    <t>6.05.重点合同完成情况汇总表</t>
+  </si>
+  <si>
+    <t>ImportantContractSum</t>
+  </si>
+  <si>
+    <t>6.06.新产品合同汇总表</t>
+  </si>
+  <si>
+    <t>NewContractCashRate</t>
+  </si>
+  <si>
+    <t>6.07.出口管考核合同汇总表</t>
+  </si>
+  <si>
+    <t>ExportContractCashRate</t>
+  </si>
+  <si>
+    <t>6.08.出口管合同分析</t>
+  </si>
+  <si>
+    <t>ExportContractAnalysis</t>
+  </si>
+  <si>
+    <t>6.09.有效合同汇总表</t>
+  </si>
+  <si>
+    <t>ValidContractState</t>
+  </si>
+  <si>
+    <t>6.10.销售部考核合同未完明细表</t>
+  </si>
+  <si>
+    <t>CheckSaleContractUnfinishedDetail</t>
+  </si>
+  <si>
+    <t>6.11.缴库汇总</t>
+  </si>
+  <si>
+    <t>DayInStorageSum</t>
+  </si>
+  <si>
+    <t>6.12.排产合同完成情况汇总表</t>
+  </si>
+  <si>
+    <t>YearOutputContractCompleteSum</t>
+  </si>
+  <si>
+    <t>6.13.缴库合同明细表</t>
+  </si>
+  <si>
+    <t>InStorageContractDetail</t>
+  </si>
+  <si>
+    <t>6.14.排产合同跟踪表</t>
+  </si>
+  <si>
+    <t>OutputContractTrack</t>
+  </si>
+  <si>
+    <t>6.15.日计划汇总表</t>
+  </si>
+  <si>
+    <t>DayPlanSum</t>
+  </si>
+  <si>
+    <t>6.16.热处理生产跟踪表</t>
+  </si>
+  <si>
+    <t>HotProcessProduceTrack</t>
+  </si>
+  <si>
+    <t>6.17.159连轧管厂一次材机组月孔型安排</t>
+  </si>
+  <si>
+    <t>GrooveMonthPlan_159</t>
+  </si>
+  <si>
+    <t>6.18.在产品库存分析</t>
+  </si>
+  <si>
+    <t>ProducingInventoryAnalysis</t>
+  </si>
+  <si>
+    <t>6.19.当月正常库存汇总表</t>
+  </si>
+  <si>
+    <t>CurrentMonthNormalInventorySum</t>
+  </si>
+  <si>
+    <t>6.20.主要产品、产量完成情况统计表</t>
+  </si>
+  <si>
+    <t>ImportantProductCompleteSum</t>
+  </si>
+  <si>
+    <t>6.21.当月生产合同情况汇总表</t>
+  </si>
+  <si>
+    <t>CurrentMonthProductContractSum</t>
+  </si>
+  <si>
+    <t>6.00.月合同类型导入</t>
+  </si>
+  <si>
+    <t>ImportContractNo</t>
+  </si>
+  <si>
+    <t>7.1.轧材要钢合同制定</t>
+  </si>
+  <si>
+    <t>BilletNeedContractExFrm</t>
+  </si>
+  <si>
+    <t>7.2.要钢合同下发整锭库</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>原料场</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>烧结线#1</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>烧结线#2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>球团线</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>炼铁线#1</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>炼铁线#2</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>炼铁线#3</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>炼铁线#4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>小转炉</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>大转炉</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>大电炉</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>电渣线</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>其他外购坯线</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>高线机组</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>棒材机组</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>508周轧机组</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>650热扩机组</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>合金机组</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>180精轧机组</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>340连轧机组</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>配套管加工1#线</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>340外委线</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>159连轧机组</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>配套管加工2#线</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>159外委线</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>配套管加工3#线</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>物资配送中心</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>金堂线</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>攀钢坯线</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>三益坯线</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>兴澄坯线</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>长钢坯线</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>生活管理部</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>自动化部</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>铁路运输管理部</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>整锭</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>周轧外委</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>废钢</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>成品库(159外委)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>成品库（159）</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>成品库(340特管机组)</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>成品库(340外委)</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>成品库 340库</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>成品库(508)</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>成品库(精轧)</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>成品库(合金)</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>159特管出口管库</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>159外委出口管库</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>159出口管库</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>340特管出口管库</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>340外委出口管库</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>340出口管库</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>650机组出口管库</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>508机组出口管库</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>180机组出口管库</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>成品库(新管加工)</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>现货库（159）</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>现货库（340）</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>现货库(508)</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>现货库(扩管)</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>现货库(159特管机组)</t>
+  </si>
+  <si>
+    <t>KX</t>
+  </si>
+  <si>
+    <t>现货库(340特管机组)</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>现货库（合金）</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>现货库(精轧)</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>次管库(340)</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>次管库（159）</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>次管库（周轧）</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>次管库（扩管）</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>次管库（精轧）</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>成品库(扩管)</t>
+  </si>
+  <si>
+    <t>K0</t>
+  </si>
+  <si>
+    <t>成品库(159特管机组)</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>现货库(340外委)</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>159出口管线</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>次管库（管加工）</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>质保部</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>外委锻坯线</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>PYP产线</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>抚顺坯线</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>承德建龙坯线</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>陕西龙钢（汉中）坯线</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>成渝钒钛坯线</t>
+  </si>
+  <si>
+    <t>Z7</t>
+  </si>
+  <si>
+    <t>太原坯线</t>
+  </si>
+  <si>
+    <t>Z8</t>
+  </si>
+  <si>
+    <t>江苏淮钢</t>
+  </si>
+  <si>
+    <t>Z9</t>
+  </si>
+  <si>
+    <t>石钢坯线</t>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseInAdvance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坯料预入库</t>
+  </si>
+  <si>
+    <t>库存账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入出库账本明细</t>
+  </si>
+  <si>
+    <t>Wst_BilletStoreAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_AccountDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wst_InAdvanceInput,Wst_BilletStoreAccount,wst_AccountDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BilletModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wst_InAdvanceInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_PositionCode</t>
+  </si>
+  <si>
+    <t>库位编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_AreaCode</t>
+  </si>
+  <si>
+    <t>区域编码</t>
+  </si>
+  <si>
+    <t>wst_WarehouseCode</t>
+  </si>
+  <si>
+    <t>库房编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_InAdvanceJudgeHis</t>
+  </si>
+  <si>
+    <t>预入库判定记录</t>
+  </si>
+  <si>
+    <t>PurchaseInAdvance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_PurchaseBilletData</t>
+  </si>
+  <si>
+    <t>外购坯料来料</t>
+  </si>
+  <si>
+    <t>StraightHairBillet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_WSRAL00002</t>
+  </si>
+  <si>
+    <t>整锭库发料成份信息</t>
+  </si>
+  <si>
+    <t>wst_mes_WSRSM00003</t>
+  </si>
+  <si>
+    <t>整锭库退料</t>
+  </si>
+  <si>
+    <t>整锭库退料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>电文ID</t>
+  </si>
+  <si>
+    <t>电文名称</t>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>接收</t>
+  </si>
+  <si>
+    <t>WSRAL00001</t>
+  </si>
+  <si>
+    <t>整锭库发出时</t>
+  </si>
+  <si>
+    <t>接口系统</t>
+  </si>
+  <si>
+    <t>炼钢MES、棒材MES、高线MES、无缝MES</t>
+  </si>
+  <si>
+    <t>WSRAL00002</t>
+  </si>
+  <si>
+    <t>WSRSM00003</t>
+  </si>
+  <si>
+    <t>整锭库退料时</t>
+  </si>
+  <si>
+    <t>炼钢MES</t>
+  </si>
+  <si>
+    <t>WSRSR00004</t>
+  </si>
+  <si>
+    <t>对生产厂退料确认</t>
+  </si>
+  <si>
+    <t>生产厂退料，整锭库确认时</t>
+  </si>
+  <si>
+    <t>棒材MES、高线MES、无缝MES</t>
+  </si>
+  <si>
+    <t>WSSSM00001</t>
+  </si>
+  <si>
+    <t>整锭库收料</t>
+  </si>
+  <si>
+    <t>整锭库收料时</t>
+  </si>
+  <si>
+    <t>整锭库收料成份信息</t>
+  </si>
+  <si>
+    <t>WSSSR00003</t>
+  </si>
+  <si>
+    <t>生产厂收料确认</t>
+  </si>
+  <si>
+    <t>生产厂收料时</t>
+  </si>
+  <si>
+    <t>WSSSR00004</t>
+  </si>
+  <si>
+    <t>生产厂退料</t>
+  </si>
+  <si>
+    <t>WSSSR00006</t>
+  </si>
+  <si>
+    <t>生产线向整锭库要料计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">棒材MES、高线MES、无缝MES </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9 </t>
+    </r>
+  </si>
+  <si>
+    <t>wst_mes_WSRSR00004</t>
+  </si>
+  <si>
+    <t>wst_mes_WSSSM00001</t>
+  </si>
+  <si>
+    <t>WSSSM00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_WSSSR00003</t>
+  </si>
+  <si>
+    <t>wst_mes_WSSSR00004</t>
+  </si>
+  <si>
+    <t>质量证明书数据主信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_QGSTS00005</t>
+  </si>
+  <si>
+    <t>质量证明书数据信息明细表</t>
+  </si>
+  <si>
+    <t>wst_mes_OPRQY00001</t>
+  </si>
+  <si>
+    <t>运输申请</t>
+  </si>
+  <si>
+    <t>wst_mes_OPRQY00002</t>
+  </si>
+  <si>
+    <t>运单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_OPSQY00001</t>
+  </si>
+  <si>
+    <t>运输申请审批结果</t>
+  </si>
+  <si>
+    <t>wst_mes_OPSQY00002</t>
+  </si>
+  <si>
+    <t>运输货物字典</t>
+  </si>
+  <si>
+    <t>wst_mes_OPSQY00003</t>
+  </si>
+  <si>
+    <t>运输线路字典</t>
+  </si>
+  <si>
+    <t>wst_mes_OPSQY00004</t>
+  </si>
+  <si>
+    <t>服务单位字典</t>
+  </si>
+  <si>
+    <t>wst_mes_OPSQY00005</t>
+  </si>
+  <si>
+    <t>车牌号信息</t>
+  </si>
+  <si>
+    <t>wst_ProductLineAskBilletPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wst_mes_WLRTY00001</t>
+  </si>
+  <si>
+    <t>内转装车货票信息</t>
+  </si>
+  <si>
+    <t>wst_mes_WLRTY00003</t>
+  </si>
+  <si>
+    <t>卸车货票信息</t>
+  </si>
+  <si>
+    <t>wst_mes_WLRTY00009</t>
+  </si>
+  <si>
+    <t>日内转计划信息</t>
+  </si>
+  <si>
+    <t>wst_mes_WLSTY00001</t>
+  </si>
+  <si>
+    <t>装车车辆信息</t>
+  </si>
+  <si>
+    <t>wst_mes_WLSTY00002</t>
+  </si>
+  <si>
+    <t>卸车车辆信息</t>
+  </si>
+  <si>
+    <t>wst_mes_WLSTY00007</t>
+  </si>
+  <si>
+    <t>产线场地对照关系</t>
+  </si>
+  <si>
+    <t>wst_mes_WLSTY00008</t>
+  </si>
+  <si>
+    <t>车种信息表</t>
+  </si>
+  <si>
+    <t>BilletLocationMoveIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wst_WasteDealRecord</t>
+  </si>
+  <si>
+    <t>Wst_WasteDealRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废品处理记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscardReject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +2159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,8 +2202,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +2242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,15 +2295,165 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -971,727 +2775,930 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C28" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C31" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C32" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C88" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B88">
+  <conditionalFormatting sqref="A2:C7 A10:C24 A8:B9 A27:C27 A25:B26 A30:C30 A28:B29 A33:C36 A31:B32 A38:C38 A37:B37 A39:B39 A40:C88">
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="12" priority="19">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW(),2)</formula>
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>MOD(ROW(), 2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,257 +3708,3326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:B197">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(), 2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B192"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="38.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>170</v>
+      <c r="A1" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B52">
-    <cfRule type="expression" priority="2">
-      <formula>MOD(ROW(), 2)</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A2:B192">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(), 2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>58</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>60</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>62</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>63</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>64</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>83</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>84</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>85</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>86</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>87</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>88</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <v>89</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <v>90</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <v>91</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <v>92</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <v>93</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <v>94</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <v>95</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <v>96</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <v>97</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <v>98</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <v>99</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <v>111</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <v>112</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <v>113</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <v>114</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <v>115</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <v>116</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <v>117</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <v>118</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
+        <v>128</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
+        <v>129</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
+        <v>130</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
+        <v>131</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
+        <v>132</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
+        <v>133</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
+        <v>134</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
+        <v>139</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
+        <v>146</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
+        <v>148</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
+        <v>154</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
+        <v>155</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <v>156</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
+        <v>157</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
+        <v>158</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
+        <v>159</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
+        <v>160</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <v>161</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
+        <v>162</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <v>163</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:C85">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module.xlsx
+++ b/Module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="整锭模块" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_Hlt351991737" localSheetId="1">表名!$F$9</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -949,9 +949,6 @@
   </si>
   <si>
     <t>3.22.钢坯外购计划制定</t>
-  </si>
-  <si>
-    <t>BilletOutSideBuyPlan</t>
   </si>
   <si>
     <t>3.23.钢坯外购计划发送整锭</t>
@@ -2152,6 +2149,10 @@
   </si>
   <si>
     <t>DiscardReject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BilletOutSideBuyPlan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2323,63 +2324,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2777,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3143,10 +3088,10 @@
         <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -3154,7 +3099,7 @@
         <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>197</v>
@@ -3165,10 +3110,10 @@
         <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3185,7 +3130,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -3248,7 +3193,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -3275,10 +3220,10 @@
         <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -3735,22 +3680,22 @@
         <v>157</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
@@ -3761,220 +3706,220 @@
         <v>175</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>586</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>574</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>586</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>590</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>598</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>602</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>604</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>605</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>606</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -3982,128 +3927,128 @@
         <v>180</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>652</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -4152,7 +4097,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>169</v>
@@ -4248,74 +4193,74 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -4911,7 +4856,7 @@
   <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4923,10 +4868,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5219,15 +5164,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>151</v>
@@ -5235,10 +5180,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -5254,12 +5199,12 @@
         <v>301</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>302</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>151</v>
@@ -5283,10 +5228,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -5299,39 +5244,39 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>151</v>
@@ -5339,42 +5284,42 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -5395,199 +5340,199 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>151</v>
@@ -6077,7 +6022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
@@ -6088,13 +6033,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -6102,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6113,10 +6058,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6124,10 +6069,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6135,10 +6080,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6146,10 +6091,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6157,10 +6102,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6168,10 +6113,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6179,10 +6124,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6190,10 +6135,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6201,10 +6146,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6212,10 +6157,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6223,10 +6168,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6234,10 +6179,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6245,10 +6190,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6256,10 +6201,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6267,10 +6212,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6278,10 +6223,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6289,10 +6234,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6300,10 +6245,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6311,10 +6256,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6322,10 +6267,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6333,10 +6278,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6344,10 +6289,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6355,10 +6300,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6366,10 +6311,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6377,10 +6322,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6388,10 +6333,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6399,10 +6344,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6410,10 +6355,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6421,10 +6366,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6432,10 +6377,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -6443,10 +6388,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6454,10 +6399,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6465,10 +6410,10 @@
         <v>58</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6476,10 +6421,10 @@
         <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6487,10 +6432,10 @@
         <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6498,10 +6443,10 @@
         <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6509,10 +6454,10 @@
         <v>64</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6520,10 +6465,10 @@
         <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -6531,10 +6476,10 @@
         <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6542,10 +6487,10 @@
         <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -6553,10 +6498,10 @@
         <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6564,10 +6509,10 @@
         <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6575,10 +6520,10 @@
         <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -6586,10 +6531,10 @@
         <v>88</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -6597,10 +6542,10 @@
         <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -6608,10 +6553,10 @@
         <v>90</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -6619,10 +6564,10 @@
         <v>91</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -6630,10 +6575,10 @@
         <v>92</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -6641,10 +6586,10 @@
         <v>93</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -6652,10 +6597,10 @@
         <v>94</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6663,10 +6608,10 @@
         <v>95</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6674,10 +6619,10 @@
         <v>96</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -6685,10 +6630,10 @@
         <v>97</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -6696,10 +6641,10 @@
         <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6707,10 +6652,10 @@
         <v>99</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -6718,10 +6663,10 @@
         <v>111</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -6729,10 +6674,10 @@
         <v>112</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -6740,10 +6685,10 @@
         <v>113</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -6751,10 +6696,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6762,10 +6707,10 @@
         <v>115</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6773,10 +6718,10 @@
         <v>116</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6784,10 +6729,10 @@
         <v>117</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6795,10 +6740,10 @@
         <v>118</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6806,10 +6751,10 @@
         <v>128</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6817,10 +6762,10 @@
         <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6828,10 +6773,10 @@
         <v>130</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6839,10 +6784,10 @@
         <v>131</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6850,10 +6795,10 @@
         <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6861,10 +6806,10 @@
         <v>133</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6872,10 +6817,10 @@
         <v>134</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6883,10 +6828,10 @@
         <v>139</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6894,10 +6839,10 @@
         <v>146</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6905,10 +6850,10 @@
         <v>148</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6916,10 +6861,10 @@
         <v>154</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6927,10 +6872,10 @@
         <v>155</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6938,10 +6883,10 @@
         <v>156</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6949,10 +6894,10 @@
         <v>157</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6960,10 +6905,10 @@
         <v>158</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -6971,10 +6916,10 @@
         <v>159</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -6982,10 +6927,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -6993,10 +6938,10 @@
         <v>161</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -7004,10 +6949,10 @@
         <v>162</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -7015,10 +6960,10 @@
         <v>163</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/Module.xlsx
+++ b/Module.xlsx
@@ -439,9 +439,6 @@
     <t>9.03整锭库存帐月结转</t>
   </si>
   <si>
-    <t>MonthCarryAccount</t>
-  </si>
-  <si>
     <t>9.04方坯台账</t>
   </si>
   <si>
@@ -1700,10 +1697,6 @@
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehouseInAdvance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2153,6 +2146,14 @@
   </si>
   <si>
     <t>BilletOutSideBuyPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthCarryAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseInAdvance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2722,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2735,13 +2736,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2806,7 +2807,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2814,10 +2815,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2825,10 +2826,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2875,7 +2876,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2964,10 +2965,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2975,10 +2976,10 @@
         <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2986,10 +2987,10 @@
         <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -3000,7 +3001,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -3008,10 +3009,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -3019,10 +3020,10 @@
         <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -3033,7 +3034,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -3044,7 +3045,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -3088,10 +3089,10 @@
         <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>551</v>
+        <v>658</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -3099,10 +3100,10 @@
         <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -3110,10 +3111,10 @@
         <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3130,7 +3131,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -3193,7 +3194,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -3220,10 +3221,10 @@
         <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -3420,13 +3421,13 @@
         <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>657</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
@@ -3507,7 +3508,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>115</v>
@@ -3516,46 +3517,46 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C88" s="2"/>
     </row>
@@ -3655,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3674,381 +3675,381 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>580</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>576</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>588</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>592</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>597</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>601</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -4057,210 +4058,210 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -4868,746 +4869,746 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -6033,13 +6034,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -6047,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6058,10 +6059,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6069,10 +6070,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6080,10 +6081,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6091,10 +6092,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6102,10 +6103,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6113,10 +6114,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6124,10 +6125,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6135,10 +6136,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6146,10 +6147,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6157,10 +6158,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6168,10 +6169,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6179,10 +6180,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6190,10 +6191,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6201,10 +6202,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6212,10 +6213,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6223,10 +6224,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6234,10 +6235,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6245,10 +6246,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6256,10 +6257,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6267,10 +6268,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6278,10 +6279,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6289,10 +6290,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6300,10 +6301,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6311,10 +6312,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6322,10 +6323,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6333,10 +6334,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6344,10 +6345,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6355,10 +6356,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6366,10 +6367,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6377,10 +6378,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -6388,10 +6389,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6399,10 +6400,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6410,10 +6411,10 @@
         <v>58</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6421,10 +6422,10 @@
         <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6432,10 +6433,10 @@
         <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6443,10 +6444,10 @@
         <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6454,10 +6455,10 @@
         <v>64</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6465,10 +6466,10 @@
         <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -6476,10 +6477,10 @@
         <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6487,10 +6488,10 @@
         <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -6498,10 +6499,10 @@
         <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6509,10 +6510,10 @@
         <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6520,10 +6521,10 @@
         <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -6531,10 +6532,10 @@
         <v>88</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -6542,10 +6543,10 @@
         <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -6553,10 +6554,10 @@
         <v>90</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -6564,10 +6565,10 @@
         <v>91</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -6575,10 +6576,10 @@
         <v>92</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -6586,10 +6587,10 @@
         <v>93</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -6597,10 +6598,10 @@
         <v>94</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6608,10 +6609,10 @@
         <v>95</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6619,10 +6620,10 @@
         <v>96</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -6630,10 +6631,10 @@
         <v>97</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -6641,10 +6642,10 @@
         <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6652,10 +6653,10 @@
         <v>99</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -6663,10 +6664,10 @@
         <v>111</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -6674,10 +6675,10 @@
         <v>112</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -6685,10 +6686,10 @@
         <v>113</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -6696,10 +6697,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6707,10 +6708,10 @@
         <v>115</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6718,10 +6719,10 @@
         <v>116</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6729,10 +6730,10 @@
         <v>117</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6740,10 +6741,10 @@
         <v>118</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6751,10 +6752,10 @@
         <v>128</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6762,10 +6763,10 @@
         <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6773,10 +6774,10 @@
         <v>130</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6784,10 +6785,10 @@
         <v>131</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6795,10 +6796,10 @@
         <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6806,10 +6807,10 @@
         <v>133</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6817,10 +6818,10 @@
         <v>134</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6828,10 +6829,10 @@
         <v>139</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6839,10 +6840,10 @@
         <v>146</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6850,10 +6851,10 @@
         <v>148</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6861,10 +6862,10 @@
         <v>154</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6872,10 +6873,10 @@
         <v>155</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6883,10 +6884,10 @@
         <v>156</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6894,10 +6895,10 @@
         <v>157</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6905,10 +6906,10 @@
         <v>158</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -6916,10 +6917,10 @@
         <v>159</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -6927,10 +6928,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -6938,10 +6939,10 @@
         <v>161</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -6949,10 +6950,10 @@
         <v>162</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -6960,10 +6961,10 @@
         <v>163</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/Module.xlsx
+++ b/Module.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="660">
   <si>
     <t>9.05园坯台账</t>
   </si>
@@ -2154,6 +2154,10 @@
   </si>
   <si>
     <t>WarehouseInAdvance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreAndIOMonthReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2723,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3493,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>11</v>
+        <v>659</v>
       </c>
       <c r="C81" s="2"/>
     </row>

--- a/Module.xlsx
+++ b/Module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="整锭模块" sheetId="1" r:id="rId1"/>
@@ -142,12 +142,6 @@
     <t>3.1生产线要钢计划</t>
   </si>
   <si>
-    <t>4.1外购坯来料计划配置</t>
-  </si>
-  <si>
-    <t>PurchaseBilletData</t>
-  </si>
-  <si>
     <t>4.2并炉计划编制</t>
   </si>
   <si>
@@ -205,18 +199,9 @@
     <t>ChangeBilletPositionPlan</t>
   </si>
   <si>
-    <t>5.5转运计划</t>
-  </si>
-  <si>
     <t>5.6直发计划</t>
   </si>
   <si>
-    <t>5.7外委加工发钢计划</t>
-  </si>
-  <si>
-    <t>DeliveryBilletJobPlanOutTrustPlanV2</t>
-  </si>
-  <si>
     <t>5.8来料加工发钢计划</t>
   </si>
   <si>
@@ -250,15 +235,9 @@
     <t>7.02自炼钢整理结果填写</t>
   </si>
   <si>
-    <t>7.03外购钢预入库</t>
-  </si>
-  <si>
     <t>7.04外购钢整理结果填写</t>
   </si>
   <si>
-    <t>PurchaseBilletModify</t>
-  </si>
-  <si>
     <t>7.05直发结果填写</t>
   </si>
   <si>
@@ -338,12 +317,6 @@
   </si>
   <si>
     <t>BilletInAdvanceInputStorage</t>
-  </si>
-  <si>
-    <t>8.10转运记录查询</t>
-  </si>
-  <si>
-    <t>BilletLocationMoveInSearch</t>
   </si>
   <si>
     <t>8.11翻钢记录查询</t>
@@ -1715,10 +1688,6 @@
   </si>
   <si>
     <t>wst_AccountDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wst_InAdvanceInput,Wst_BilletStoreAccount,wst_AccountDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2126,38 +2095,78 @@
     <t>车种信息表</t>
   </si>
   <si>
+    <t>Wst_WasteDealRecord</t>
+  </si>
+  <si>
+    <t>Wst_WasteDealRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废品处理记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscardReject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BilletOutSideBuyPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthCarryAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseInAdvance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreAndIOMonthReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryBilletJobPlanOutTrustPlanV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7外委加工发钢计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurchaseBilletModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wst_InAdvanceInput,Wst_BilletStoreAccount,wst_AccountDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurchaseBilletData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1外购坯来料计划配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.03外购钢预入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.10转运记录查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BilletLocationMoveInSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BilletLocationMoveIn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wst_WasteDealRecord</t>
-  </si>
-  <si>
-    <t>Wst_WasteDealRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废品处理记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiscardReject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BilletOutSideBuyPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonthCarryAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehouseInAdvance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreAndIOMonthReport</t>
+    <t>5.5转运计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2740,13 +2749,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2811,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2819,10 +2828,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2830,10 +2839,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2880,7 +2889,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2894,544 +2903,544 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>654</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>653</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>659</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>650</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>649</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>555</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>651</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>656</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>657</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
@@ -3497,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -3512,55 +3521,55 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C88" s="2"/>
     </row>
@@ -3679,381 +3688,381 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>583</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="13" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="13" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -4062,210 +4071,210 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -4873,746 +4882,746 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -6038,13 +6047,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -6052,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6063,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6074,10 +6083,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6085,10 +6094,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6096,10 +6105,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6107,10 +6116,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6118,10 +6127,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6129,10 +6138,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6140,10 +6149,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6151,10 +6160,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6162,10 +6171,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6173,10 +6182,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6184,10 +6193,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6195,10 +6204,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6206,10 +6215,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6217,10 +6226,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6228,10 +6237,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6239,10 +6248,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6250,10 +6259,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6261,10 +6270,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6272,10 +6281,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6283,10 +6292,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6294,10 +6303,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6305,10 +6314,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6316,10 +6325,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6327,10 +6336,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6338,10 +6347,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6349,10 +6358,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6360,10 +6369,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6371,10 +6380,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6382,10 +6391,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -6393,10 +6402,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6404,10 +6413,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6415,10 +6424,10 @@
         <v>58</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6426,10 +6435,10 @@
         <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6437,10 +6446,10 @@
         <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6448,10 +6457,10 @@
         <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6459,10 +6468,10 @@
         <v>64</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6470,10 +6479,10 @@
         <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -6481,10 +6490,10 @@
         <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6492,10 +6501,10 @@
         <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -6503,10 +6512,10 @@
         <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6514,10 +6523,10 @@
         <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6525,10 +6534,10 @@
         <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -6536,10 +6545,10 @@
         <v>88</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -6547,10 +6556,10 @@
         <v>89</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -6558,10 +6567,10 @@
         <v>90</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -6569,10 +6578,10 @@
         <v>91</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -6580,10 +6589,10 @@
         <v>92</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -6591,10 +6600,10 @@
         <v>93</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -6602,10 +6611,10 @@
         <v>94</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6613,10 +6622,10 @@
         <v>95</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6624,10 +6633,10 @@
         <v>96</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -6635,10 +6644,10 @@
         <v>97</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -6646,10 +6655,10 @@
         <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6657,10 +6666,10 @@
         <v>99</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -6668,10 +6677,10 @@
         <v>111</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -6679,10 +6688,10 @@
         <v>112</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -6690,10 +6699,10 @@
         <v>113</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -6701,10 +6710,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6712,10 +6721,10 @@
         <v>115</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6723,10 +6732,10 @@
         <v>116</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6734,10 +6743,10 @@
         <v>117</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6745,10 +6754,10 @@
         <v>118</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6756,10 +6765,10 @@
         <v>128</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6767,10 +6776,10 @@
         <v>129</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6778,10 +6787,10 @@
         <v>130</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6789,10 +6798,10 @@
         <v>131</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6800,10 +6809,10 @@
         <v>132</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6811,10 +6820,10 @@
         <v>133</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6822,10 +6831,10 @@
         <v>134</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6833,10 +6842,10 @@
         <v>139</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6844,10 +6853,10 @@
         <v>146</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6855,10 +6864,10 @@
         <v>148</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6866,10 +6875,10 @@
         <v>154</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6877,10 +6886,10 @@
         <v>155</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6888,10 +6897,10 @@
         <v>156</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6899,10 +6908,10 @@
         <v>157</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6910,10 +6919,10 @@
         <v>158</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -6921,10 +6930,10 @@
         <v>159</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -6932,10 +6941,10 @@
         <v>160</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -6943,10 +6952,10 @@
         <v>161</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -6954,10 +6963,10 @@
         <v>162</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -6965,10 +6974,10 @@
         <v>163</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
